--- a/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>306385</v>
+        <v>304613</v>
       </c>
       <c r="D2" t="n">
-        <v>390931793</v>
+        <v>388738656</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +526,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" t="n">
-        <v>301099</v>
+        <v>299205</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +564,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D4" t="n">
-        <v>436843</v>
+        <v>433843</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -648,10 +716,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D8" t="n">
-        <v>1211544</v>
+        <v>1210044</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -724,10 +792,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>113104</v>
+        <v>112821</v>
       </c>
       <c r="D10" t="n">
-        <v>165823559</v>
+        <v>165413120</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -800,10 +868,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>56673</v>
+        <v>56477</v>
       </c>
       <c r="D12" t="n">
-        <v>81836194</v>
+        <v>81557107</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -952,10 +1020,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3755</v>
+        <v>3747</v>
       </c>
       <c r="D16" t="n">
-        <v>5331173</v>
+        <v>5320375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1104,10 +1172,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6006</v>
+        <v>5946</v>
       </c>
       <c r="D20" t="n">
-        <v>8392260</v>
+        <v>8311657</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1180,10 +1248,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>74514</v>
+        <v>74180</v>
       </c>
       <c r="D22" t="n">
-        <v>93161583</v>
+        <v>92777154</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1408,10 +1476,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>31511</v>
+        <v>31438</v>
       </c>
       <c r="D28" t="n">
-        <v>46145854</v>
+        <v>46040125</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1484,10 +1552,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11044</v>
+        <v>11000</v>
       </c>
       <c r="D30" t="n">
-        <v>15911020</v>
+        <v>15845121</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1598,10 +1666,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="D33" t="n">
-        <v>2076871</v>
+        <v>2066879</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1674,10 +1742,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1648</v>
+        <v>1636</v>
       </c>
       <c r="D35" t="n">
-        <v>2323974</v>
+        <v>2307756</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1780,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>94012</v>
+        <v>93579</v>
       </c>
       <c r="D36" t="n">
-        <v>118609288</v>
+        <v>118092077</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1818,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" t="n">
-        <v>75477</v>
+        <v>72477</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1856,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D38" t="n">
-        <v>112488</v>
+        <v>109008</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2016,10 +2084,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>43264</v>
+        <v>43166</v>
       </c>
       <c r="D44" t="n">
-        <v>63439607</v>
+        <v>63301758</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2092,10 +2160,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8802</v>
+        <v>8765</v>
       </c>
       <c r="D46" t="n">
-        <v>12634147</v>
+        <v>12583165</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2168,10 +2236,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="D48" t="n">
-        <v>1851857</v>
+        <v>1841357</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2282,10 +2350,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2103</v>
+        <v>2083</v>
       </c>
       <c r="D51" t="n">
-        <v>2928539</v>
+        <v>2901018</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2388,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>66325</v>
+        <v>65991</v>
       </c>
       <c r="D52" t="n">
-        <v>83312356</v>
+        <v>82904373</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2426,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>39883</v>
+        <v>38383</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2464,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D54" t="n">
-        <v>57866</v>
+        <v>56366</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2548,10 +2616,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>27317</v>
+        <v>27236</v>
       </c>
       <c r="D58" t="n">
-        <v>40066703</v>
+        <v>39950242</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2654,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>36000</v>
+        <v>34500</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2662,10 +2730,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10623</v>
+        <v>10579</v>
       </c>
       <c r="D61" t="n">
-        <v>15364049</v>
+        <v>15302625</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2738,10 +2806,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D63" t="n">
-        <v>1825706</v>
+        <v>1818289</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2890,10 +2958,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="D67" t="n">
-        <v>1897181</v>
+        <v>1878890</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2966,10 +3034,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19541</v>
+        <v>19435</v>
       </c>
       <c r="D69" t="n">
-        <v>25579770</v>
+        <v>25442674</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7174</v>
+        <v>7137</v>
       </c>
       <c r="D73" t="n">
-        <v>10503921</v>
+        <v>10448421</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3194,10 +3262,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4843</v>
+        <v>4826</v>
       </c>
       <c r="D75" t="n">
-        <v>7032802</v>
+        <v>7007402</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3300,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D76" t="n">
-        <v>649689</v>
+        <v>646689</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3338,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D77" t="n">
-        <v>349904</v>
+        <v>346256</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3376,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>135230</v>
+        <v>134582</v>
       </c>
       <c r="D78" t="n">
-        <v>168823155</v>
+        <v>168041969</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3414,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" t="n">
-        <v>78110</v>
+        <v>77285</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3460,10 +3528,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D82" t="n">
-        <v>597475</v>
+        <v>594475</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3536,10 +3604,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>61513</v>
+        <v>61381</v>
       </c>
       <c r="D84" t="n">
-        <v>90202951</v>
+        <v>90013005</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3650,10 +3718,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>28480</v>
+        <v>28390</v>
       </c>
       <c r="D87" t="n">
-        <v>41225419</v>
+        <v>41097917</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3726,10 +3794,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="D89" t="n">
-        <v>3676471</v>
+        <v>3671334</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3832,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2541</v>
+        <v>2523</v>
       </c>
       <c r="D90" t="n">
-        <v>3583312</v>
+        <v>3558370</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3870,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>29757</v>
+        <v>29362</v>
       </c>
       <c r="D91" t="n">
-        <v>40326921</v>
+        <v>39814246</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3954,10 +4022,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7451</v>
+        <v>7376</v>
       </c>
       <c r="D95" t="n">
-        <v>10973440</v>
+        <v>10862848</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4098,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6706</v>
+        <v>6611</v>
       </c>
       <c r="D97" t="n">
-        <v>9717049</v>
+        <v>9581276</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4106,10 +4174,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D99" t="n">
-        <v>672805</v>
+        <v>666855</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4212,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D100" t="n">
-        <v>653139</v>
+        <v>645773</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4250,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7605</v>
+        <v>7496</v>
       </c>
       <c r="D101" t="n">
-        <v>10535403</v>
+        <v>10390844</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4258,10 +4326,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1932</v>
+        <v>1897</v>
       </c>
       <c r="D103" t="n">
-        <v>2842255</v>
+        <v>2791434</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4334,10 +4402,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2621</v>
+        <v>2569</v>
       </c>
       <c r="D105" t="n">
-        <v>3827867</v>
+        <v>3750875</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4410,10 +4478,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D107" t="n">
-        <v>157620</v>
+        <v>151620</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4448,10 +4516,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D108" t="n">
-        <v>181689</v>
+        <v>180189</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4554,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>135891</v>
+        <v>135235</v>
       </c>
       <c r="D109" t="n">
-        <v>168168386</v>
+        <v>167368753</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4638,10 +4706,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D113" t="n">
-        <v>1355856</v>
+        <v>1352856</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4714,10 +4782,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>51270</v>
+        <v>51140</v>
       </c>
       <c r="D115" t="n">
-        <v>75187817</v>
+        <v>74996495</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4790,10 +4858,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>25916</v>
+        <v>25795</v>
       </c>
       <c r="D117" t="n">
-        <v>37553759</v>
+        <v>37377776</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4896,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="D118" t="n">
-        <v>1685352</v>
+        <v>1676352</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4942,10 +5010,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2055</v>
+        <v>2038</v>
       </c>
       <c r="D121" t="n">
-        <v>2887981</v>
+        <v>2863404</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5018,10 +5086,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>468356</v>
+        <v>463430</v>
       </c>
       <c r="D123" t="n">
-        <v>617507011</v>
+        <v>610938066</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5124,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D124" t="n">
-        <v>114117</v>
+        <v>111117</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5208,10 +5276,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="D128" t="n">
-        <v>1937238</v>
+        <v>1923738</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5284,10 +5352,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>198029</v>
+        <v>196961</v>
       </c>
       <c r="D130" t="n">
-        <v>291240890</v>
+        <v>289689228</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5322,10 +5390,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D131" t="n">
-        <v>545790</v>
+        <v>541290</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5398,10 +5466,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>169855</v>
+        <v>168663</v>
       </c>
       <c r="D133" t="n">
-        <v>246993802</v>
+        <v>245251432</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5512,10 +5580,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2648</v>
+        <v>2623</v>
       </c>
       <c r="D136" t="n">
-        <v>3718731</v>
+        <v>3681982</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5588,10 +5656,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>5652</v>
+        <v>5573</v>
       </c>
       <c r="D138" t="n">
-        <v>7980217</v>
+        <v>7869500</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5702,10 +5770,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>42126</v>
+        <v>41844</v>
       </c>
       <c r="D141" t="n">
-        <v>56330028</v>
+        <v>55968424</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5854,10 +5922,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D145" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5930,10 +5998,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>13530</v>
+        <v>13480</v>
       </c>
       <c r="D147" t="n">
-        <v>19860035</v>
+        <v>19788566</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5968,10 +6036,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3564</v>
+        <v>3554</v>
       </c>
       <c r="D148" t="n">
-        <v>5141043</v>
+        <v>5126777</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6082,10 +6150,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D151" t="n">
-        <v>532222</v>
+        <v>526222</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6158,10 +6226,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D153" t="n">
-        <v>487809</v>
+        <v>484809</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6196,10 +6264,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>16412</v>
+        <v>16265</v>
       </c>
       <c r="D154" t="n">
-        <v>21742798</v>
+        <v>21548220</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6348,10 +6416,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6791</v>
+        <v>6745</v>
       </c>
       <c r="D158" t="n">
-        <v>9885802</v>
+        <v>9818212</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6424,10 +6492,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4625</v>
+        <v>4597</v>
       </c>
       <c r="D160" t="n">
-        <v>6657989</v>
+        <v>6621175</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6538,10 +6606,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D163" t="n">
-        <v>355433</v>
+        <v>340433</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6614,10 +6682,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>13659</v>
+        <v>13368</v>
       </c>
       <c r="D165" t="n">
-        <v>19817831</v>
+        <v>19383614</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6652,10 +6720,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1633</v>
+        <v>1619</v>
       </c>
       <c r="D166" t="n">
-        <v>2429138</v>
+        <v>2408338</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6690,10 +6758,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D167" t="n">
-        <v>317302</v>
+        <v>312802</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6804,10 +6872,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D170" t="n">
-        <v>118449</v>
+        <v>115449</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6842,10 +6910,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>84607</v>
+        <v>84195</v>
       </c>
       <c r="D171" t="n">
-        <v>105900308</v>
+        <v>105428102</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -7032,10 +7100,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D176" t="n">
-        <v>924346</v>
+        <v>923246</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7108,10 +7176,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>32890</v>
+        <v>32808</v>
       </c>
       <c r="D178" t="n">
-        <v>48249164</v>
+        <v>48127239</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7184,10 +7252,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>12475</v>
+        <v>12442</v>
       </c>
       <c r="D180" t="n">
-        <v>18035889</v>
+        <v>17987312</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7260,10 +7328,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="D182" t="n">
-        <v>1652676</v>
+        <v>1645328</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7336,10 +7404,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="D184" t="n">
-        <v>2106283</v>
+        <v>2083783</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7412,10 +7480,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>228722</v>
+        <v>227614</v>
       </c>
       <c r="D186" t="n">
-        <v>284573779</v>
+        <v>283238142</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7716,10 +7784,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>84161</v>
+        <v>83970</v>
       </c>
       <c r="D194" t="n">
-        <v>123393817</v>
+        <v>123116913</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7830,10 +7898,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>31726</v>
+        <v>31619</v>
       </c>
       <c r="D197" t="n">
-        <v>45670091</v>
+        <v>45519543</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7944,10 +8012,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4793</v>
+        <v>4780</v>
       </c>
       <c r="D200" t="n">
-        <v>6827260</v>
+        <v>6810229</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -8058,10 +8126,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>4413</v>
+        <v>4376</v>
       </c>
       <c r="D203" t="n">
-        <v>6121390</v>
+        <v>6069383</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8134,10 +8202,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D205" t="n">
-        <v>13411</v>
+        <v>12679</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8172,10 +8240,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>251765</v>
+        <v>250322</v>
       </c>
       <c r="D206" t="n">
-        <v>311746683</v>
+        <v>309995510</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8438,10 +8506,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D213" t="n">
-        <v>875856</v>
+        <v>869856</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8514,10 +8582,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>91760</v>
+        <v>91518</v>
       </c>
       <c r="D215" t="n">
-        <v>134293926</v>
+        <v>133940603</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8628,10 +8696,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>49134</v>
+        <v>48966</v>
       </c>
       <c r="D218" t="n">
-        <v>71060029</v>
+        <v>70818422</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8666,10 +8734,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D219" t="n">
-        <v>40769</v>
+        <v>39922</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8742,10 +8810,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4424</v>
+        <v>4398</v>
       </c>
       <c r="D221" t="n">
-        <v>6206721</v>
+        <v>6170763</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8856,10 +8924,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5206</v>
+        <v>5143</v>
       </c>
       <c r="D224" t="n">
-        <v>7194064</v>
+        <v>7107570</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8970,10 +9038,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>102198</v>
+        <v>101686</v>
       </c>
       <c r="D227" t="n">
-        <v>128113851</v>
+        <v>127491857</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -9160,10 +9228,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D232" t="n">
-        <v>808839</v>
+        <v>804339</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -9236,10 +9304,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>48151</v>
+        <v>48034</v>
       </c>
       <c r="D234" t="n">
-        <v>70568176</v>
+        <v>70396841</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9312,10 +9380,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>11878</v>
+        <v>11831</v>
       </c>
       <c r="D236" t="n">
-        <v>17079547</v>
+        <v>17015671</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9388,10 +9456,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="D238" t="n">
-        <v>2600513</v>
+        <v>2596013</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9464,10 +9532,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2335</v>
+        <v>2317</v>
       </c>
       <c r="D240" t="n">
-        <v>3263033</v>
+        <v>3236253</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9502,10 +9570,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>246297</v>
+        <v>245041</v>
       </c>
       <c r="D241" t="n">
-        <v>311307350</v>
+        <v>309764769</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9540,10 +9608,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D242" t="n">
-        <v>201831</v>
+        <v>200816</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9578,10 +9646,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D243" t="n">
-        <v>344457</v>
+        <v>342957</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9806,10 +9874,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>92580</v>
+        <v>92323</v>
       </c>
       <c r="D249" t="n">
-        <v>135705975</v>
+        <v>135343563</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9920,10 +9988,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>62106</v>
+        <v>61859</v>
       </c>
       <c r="D252" t="n">
-        <v>90050353</v>
+        <v>89689555</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9996,10 +10064,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>2305</v>
+        <v>2294</v>
       </c>
       <c r="D254" t="n">
-        <v>3254042</v>
+        <v>3238142</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -10110,10 +10178,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4186</v>
+        <v>4154</v>
       </c>
       <c r="D257" t="n">
-        <v>5874601</v>
+        <v>5828227</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
